--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_4/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.254</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.742</v>
+        <v>16.552</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.342</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.789</v>
+        <v>15.944</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.365</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.553</v>
+        <v>7.787</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.25583348257373</v>
+        <v>12.82911389277736</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.90831490360745</v>
+        <v>12.93504807044381</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.43532239853013</v>
+        <v>16.99110911614675</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9.495276499117477</v>
+        <v>1.19161588315815</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.87243902818605</v>
+        <v>10.30405628211544</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.45847647807636</v>
+        <v>9.811605103578998</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.85584521104108</v>
+        <v>3.887371693612764</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.46439089185205</v>
+        <v>20.49893208255473</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.01929613809472</v>
+        <v>21.25836418201551</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.55109425515285</v>
+        <v>9.408723508574823</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.31018378604361</v>
+        <v>16.1572209000603</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38.30821057900752</v>
+        <v>17.13288653516973</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>21.84650309181319</v>
+        <v>10.7790741689884</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33.68579698485456</v>
+        <v>3.187050849957146</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.36328361053738</v>
+        <v>10.65149400926803</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.29631514160776</v>
+        <v>13.92939684930313</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30.12742067773316</v>
+        <v>18.80437386489253</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>34.656822216441</v>
+        <v>23.08441348033908</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.37686146102215</v>
+        <v>2.951190098686837</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.87414309850076</v>
+        <v>5.445749596518468</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.4934509333621</v>
+        <v>9.198784976696132</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17.72757456986875</v>
+        <v>-0.004057689452380941</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.50793184957636</v>
+        <v>14.33473897489726</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12.25614605324319</v>
+        <v>14.66190526126481</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.90863917918308</v>
+        <v>21.76670236952292</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.43565000366518</v>
+        <v>22.71834290143046</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.495600829058155</v>
+        <v>3.092725270685619</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.87277555681068</v>
+        <v>27.88880663637902</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.45881669047029</v>
+        <v>26.8338807941732</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>13.85617272397689</v>
+        <v>5.510051507191733</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.46473073390576</v>
+        <v>38.56797475867812</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.0196393121666</v>
+        <v>37.86375231709336</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>31.55143860347159</v>
+        <v>38.09427337444173</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36.31053077670395</v>
+        <v>42.49952469248375</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.30855899761819</v>
+        <v>42.28494233243383</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.84683817981892</v>
+        <v>19.90738736834278</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>33.68614273692188</v>
+        <v>33.33597479505657</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.36363171744193</v>
+        <v>35.02083953528184</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16.29663147680926</v>
+        <v>16.53415823410715</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.12774877262585</v>
+        <v>29.17509701465396</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.65715371370489</v>
+        <v>31.67909031886823</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13.37718943315252</v>
+        <v>5.922483424364728</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.87448329220235</v>
+        <v>25.53835499695428</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.49379490585298</v>
+        <v>30.01511972692204</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32.50827545132942</v>
+        <v>37.65122046315896</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>12.2563920412826</v>
+        <v>10.07986924348556</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.90888169273674</v>
+        <v>17.38331997240347</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30.43588966705078</v>
+        <v>20.84144533973527</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9.49585501544516</v>
+        <v>1.714480734444166</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.87302625217614</v>
+        <v>25.99041280434223</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.459064566576</v>
+        <v>28.60341842488258</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.85642631802137</v>
+        <v>4.406497900818138</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.46498049970146</v>
+        <v>38.05951725154132</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.01988622125221</v>
+        <v>40.94405909746565</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31.55168934991924</v>
+        <v>38.14421707272497</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.31077940305383</v>
+        <v>41.31993534838533</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.30880642083518</v>
+        <v>44.29384109122837</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21.84709040948457</v>
+        <v>12.83892113522005</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.68639207804944</v>
+        <v>29.05730612856233</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.36387853459971</v>
+        <v>33.08037882060135</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>16.29687754976232</v>
+        <v>10.71993108227282</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30.12799129696875</v>
+        <v>23.59936134686514</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.65739342296889</v>
+        <v>29.11679804255455</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>13.37744380909342</v>
+        <v>2.624380063708983</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>27.87473412991104</v>
+        <v>21.75484838359544</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.49404294653636</v>
+        <v>30.6039582237036</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17.72815960153319</v>
+        <v>2.238649366479947</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>32.5085253644393</v>
+        <v>35.63414756276829</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>12.25629647875445</v>
+        <v>6.74932701255905</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.90879239347799</v>
+        <v>14.23517457784929</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>30.43580119878845</v>
+        <v>19.95300288259575</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>9.49574846433655</v>
+        <v>2.930712933179237</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.87292671900439</v>
+        <v>24.35011440024174</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.45896555026069</v>
+        <v>29.15534314072598</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>13.85632318564567</v>
+        <v>3.598042645105735</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.46488423440582</v>
+        <v>34.8039057724351</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.019790815183</v>
+        <v>39.2015969050746</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.55159426887913</v>
+        <v>27.53392614752566</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.31068731263944</v>
+        <v>31.48986916313727</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>38.3087147786122</v>
+        <v>38.7643080084885</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>21.84699111863078</v>
+        <v>10.08996574031256</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>33.68629759149523</v>
+        <v>22.99459301185892</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>37.36378496465547</v>
+        <v>32.75271208867703</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>16.29678386020456</v>
+        <v>8.429270477964579</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>30.12790405711326</v>
+        <v>21.48374836810918</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>34.6573069591231</v>
+        <v>28.8446541584333</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>13.37733914865144</v>
+        <v>4.254085635656466</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>27.87463664221646</v>
+        <v>19.7021765399076</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>32.49394592754853</v>
+        <v>30.78889734724312</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>17.728058277963</v>
+        <v>1.124463741209681</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32.50843108978218</v>
+        <v>31.02447668833982</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.07406498222171</v>
+        <v>21.90913060988886</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>35.67249579869166</v>
+        <v>9.160498465143107</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.57054141456167</v>
+        <v>22.02681699430069</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.59348436712092</v>
+        <v>27.18052482165193</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.97025151618693</v>
+        <v>7.511363913576091</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>38.01961278065826</v>
+        <v>11.39732405174196</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>41.67836190813823</v>
+        <v>17.99095959479719</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>23.18405835302531</v>
+        <v>13.31236779497623</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>37.07603827597887</v>
+        <v>19.53674595888192</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>41.6904785968383</v>
+        <v>27.12193901862103</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>20.82785947501377</v>
+        <v>-0.7098185230944267</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>35.40991102607647</v>
+        <v>6.517295535799079</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>40.08169105033421</v>
+        <v>11.27617343493917</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.21875999181738</v>
+        <v>-2.298919087452376</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>40.05850332857153</v>
+        <v>18.99384595743653</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.71330894290341</v>
+        <v>30.79993089321862</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.6261116029883</v>
+        <v>21.60479804666416</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>48.50446610040451</v>
+        <v>35.12267115393665</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>50.53349968267934</v>
+        <v>42.15019063096192</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>33.850200335281</v>
+        <v>6.398237641821154</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>45.88428248185075</v>
+        <v>16.39879271728351</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>49.60511974273321</v>
+        <v>28.56494191158835</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>37.07441199895144</v>
+        <v>45.72438408267881</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35.67284379433565</v>
+        <v>40.52047353898983</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>40.57089207707154</v>
+        <v>49.35866384487638</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>42.59383648535498</v>
+        <v>53.75746717981848</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.97059034265073</v>
+        <v>20.81443675742754</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>38.01996234614429</v>
+        <v>47.24996965871712</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>41.67871387421152</v>
+        <v>49.65569124353421</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.18438388626502</v>
+        <v>21.90146225755736</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>37.07637564489575</v>
+        <v>37.46101771951039</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.69081933119793</v>
+        <v>41.2780108176898</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>20.82819682707068</v>
+        <v>9.257976695136264</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.41026068471012</v>
+        <v>36.19721032627125</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>40.08204444117841</v>
+        <v>39.7233856220564</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.21910069901068</v>
+        <v>9.782112729869098</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>40.05885649992841</v>
+        <v>51.8649035977141</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>44.71366548534741</v>
+        <v>60.91856406343062</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43.62646936614998</v>
+        <v>65.2790852315543</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>48.50482652752629</v>
+        <v>73.23481463294355</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>50.53386154185894</v>
+        <v>78.27264128184881</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.85054881152451</v>
+        <v>29.85768720677005</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>45.88464169160728</v>
+        <v>64.50044039465045</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>49.60548134556654</v>
+        <v>70.21262356368196</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>37.07465908962941</v>
+        <v>48.19461414991112</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>35.67309462583174</v>
+        <v>37.27912234429068</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>40.57114070331513</v>
+        <v>44.58948505413433</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42.59408389724921</v>
+        <v>53.01721563082897</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.97084265484632</v>
+        <v>12.75228755553898</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>38.02021168481132</v>
+        <v>42.37911434083087</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.67896072136099</v>
+        <v>47.71070539244657</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.18462668556346</v>
+        <v>16.73346038555174</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>37.07661486974035</v>
+        <v>33.23110001836274</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>41.69105563410519</v>
+        <v>39.75283479895775</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>20.82844761275612</v>
+        <v>6.770998978597092</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.41050788800065</v>
+        <v>34.22380758125935</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>40.08228876092129</v>
+        <v>41.69048398531633</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.21935094105162</v>
+        <v>8.130303333843742</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>40.05910282197225</v>
+        <v>51.80182379915745</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>44.71390887310351</v>
+        <v>64.73872920127506</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>43.62671638114451</v>
+        <v>64.80811530034221</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>48.50507135029358</v>
+        <v>71.35452767041208</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>50.53410513050993</v>
+        <v>80.17357653680445</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>33.85079738995327</v>
+        <v>23.05553001926806</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>45.88488729006085</v>
+        <v>62.01157012562216</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>49.60572438112612</v>
+        <v>70.44926551890664</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.0745656201266</v>
+        <v>44.79509979104783</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35.67300172487774</v>
+        <v>22.74690051515036</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>40.57105092032717</v>
+        <v>32.10618613690671</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.59399455977211</v>
+        <v>45.1862284230714</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.97074543070319</v>
+        <v>8.655269442331203</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>38.02011946923274</v>
+        <v>35.27092477048915</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.67886936605714</v>
+        <v>45.5844202093274</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>23.18453137902881</v>
+        <v>15.50760561414656</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>37.07652599393363</v>
+        <v>32.25491061281055</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>41.69096764342476</v>
+        <v>41.97733202351817</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>20.82834175203736</v>
+        <v>8.975741016612815</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>35.41040918943636</v>
+        <v>32.48837597843119</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.0821906187085</v>
+        <v>43.37057911841744</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.21924838901185</v>
+        <v>7.355279480319112</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>40.0590072940894</v>
+        <v>47.4335902573459</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>44.71381427027346</v>
+        <v>63.59130717593446</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>43.62662246392922</v>
+        <v>50.95658236538667</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>48.50498053225122</v>
+        <v>61.14000984071693</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>50.53401478402741</v>
+        <v>76.00690089134299</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>33.85069924597016</v>
+        <v>17.8854457002946</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>45.88479411633246</v>
+        <v>53.6284619403698</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>49.60563213122616</v>
+        <v>69.08782066619257</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>5.838340809108711</v>
+        <v>14.90145112453591</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.4592059373328</v>
+        <v>23.88832323045217</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>23.89681568216612</v>
+        <v>29.31100433393003</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3.139147063595292</v>
+        <v>5.609619071564154</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>17.50434907123814</v>
+        <v>25.40494905169443</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.99277672569671</v>
+        <v>25.66740227793314</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>7.406565896278796</v>
+        <v>10.06892066188978</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>21.97466612782275</v>
+        <v>41.9259333937507</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.43676729252432</v>
+        <v>41.90358505452549</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.04716386876457</v>
+        <v>29.33261623593221</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.77328949519416</v>
+        <v>37.122042470144</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.74488117956318</v>
+        <v>36.6409051816206</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>15.42808555547924</v>
+        <v>17.44433186545494</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.24262869108545</v>
+        <v>22.52626794734188</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.85070040463908</v>
+        <v>29.54559972112968</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>9.685468448449281</v>
+        <v>16.16359538671726</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>23.48278595234889</v>
+        <v>28.74908911764383</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.91837041295171</v>
+        <v>32.28704582610693</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>6.82425743670194</v>
+        <v>4.771647171837245</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>21.30573305075338</v>
+        <v>17.21731054244638</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.82298726056199</v>
+        <v>20.10938423192364</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>11.08177966855733</v>
+        <v>4.85767344870824</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.81973508579977</v>
+        <v>33.01194854218933</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>5.838641715121987</v>
+        <v>15.49364142252814</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>19.45951846265869</v>
+        <v>31.3705238840743</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.89713146835999</v>
+        <v>33.33282174662823</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>3.139459653178335</v>
+        <v>6.21415166307257</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>17.50467378910492</v>
+        <v>41.41574290070783</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.99310504426868</v>
+        <v>40.36964333889044</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>7.406881533934182</v>
+        <v>9.96881390492841</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>21.97499400108266</v>
+        <v>57.75077722245153</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.4370984255713</v>
+        <v>55.76492284204453</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.04749621754969</v>
+        <v>55.61481512148534</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.77362445745311</v>
+        <v>61.11271064313426</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>31.7452175325012</v>
+        <v>58.91410591277845</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>15.42840872897975</v>
+        <v>24.26689410183921</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.24296247182549</v>
+        <v>50.12472545621306</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.85103648592146</v>
+        <v>50.85657285436911</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>9.685773123902173</v>
+        <v>18.67099145848299</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>23.48310230182837</v>
+        <v>38.86889714311305</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>27.9186900936991</v>
+        <v>40.22005825958415</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>6.824573671893747</v>
+        <v>7.567979964368035</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>21.30606143620248</v>
+        <v>36.83076012591253</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.82331933974591</v>
+        <v>39.61853680968132</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>11.08209901683537</v>
+        <v>9.08885907108909</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.82006672255975</v>
+        <v>55.07574800242823</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>5.838885706458196</v>
+        <v>9.708564484258446</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>19.45975895864119</v>
+        <v>25.67703558970994</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>23.89736915837659</v>
+        <v>30.00455937020486</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>3.139711756591598</v>
+        <v>3.495661388621912</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>17.50492237437224</v>
+        <v>38.11989863500641</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.99335085664291</v>
+        <v>40.48060700336528</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>7.407133027335757</v>
+        <v>7.386255130067539</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>21.97524164836914</v>
+        <v>55.58147888695827</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26.4373432610687</v>
+        <v>56.97747923194301</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.04774481742485</v>
+        <v>54.34949736684224</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.77387094085688</v>
+        <v>58.7294902698341</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>31.74546283514634</v>
+        <v>59.43840376301377</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>15.428658811655</v>
+        <v>15.89887630443063</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>27.24320964567563</v>
+        <v>44.46248619172586</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>30.85128117976114</v>
+        <v>47.25919862871454</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>9.68601732331024</v>
+        <v>12.01477263160486</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>23.48334293272693</v>
+        <v>32.34518127372296</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.91892795524197</v>
+        <v>36.55624115466868</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>6.824826089735312</v>
+        <v>3.294446004292794</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>21.30631029039133</v>
+        <v>32.01861976366767</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.8235654452569</v>
+        <v>38.89399498477512</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>11.08235085276585</v>
+        <v>5.318582289298675</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.82031464270895</v>
+        <v>51.7613882928098</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>5.8387912746628</v>
+        <v>7.971313792715179</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>19.4596708271907</v>
+        <v>23.94679850021568</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>23.89728181773004</v>
+        <v>30.79553700646663</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3.139606455339383</v>
+        <v>5.891740174068573</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>17.50482414141485</v>
+        <v>37.52774648743706</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>21.99325310314559</v>
+        <v>42.44019117771218</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>7.407031131986656</v>
+        <v>8.282933803677892</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>21.97514665256165</v>
+        <v>53.90564283837269</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.43724908447175</v>
+        <v>57.12416466536369</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.04765096944671</v>
+        <v>45.75743036323534</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.77378006767835</v>
+        <v>50.95997917989634</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>31.74537242326251</v>
+        <v>56.0690570237628</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>15.42856080574055</v>
+        <v>15.04037011132989</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>27.24311645197045</v>
+        <v>40.11373282162153</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>30.85118888130065</v>
+        <v>48.80768429821605</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>9.685924538699616</v>
+        <v>9.675418962469834</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>23.48325663184985</v>
+        <v>30.00629448386026</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.9188423868831</v>
+        <v>36.32493448529736</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>6.824722450073141</v>
+        <v>4.395254964540996</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>21.3062138697237</v>
+        <v>29.29617170078716</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.8234694521618</v>
+        <v>38.77576899633637</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>11.08225053644179</v>
+        <v>4.205584596115656</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.82022140484698</v>
+        <v>47.04274272485607</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>30.28857970072109</v>
+        <v>37.60245406095909</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.95948376540498</v>
+        <v>25.6384789685598</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>33.82112624399709</v>
+        <v>39.57917794052314</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.81508962325967</v>
+        <v>41.78365062239838</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>19.34376860947749</v>
+        <v>14.04843423290164</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.36273538689059</v>
+        <v>28.15530307442133</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>34.95039591303231</v>
+        <v>31.73410911444934</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>16.66569270554874</v>
+        <v>14.34185423517643</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>30.51720695981169</v>
+        <v>28.13746179155392</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>35.03607698659253</v>
+        <v>35.64815116540122</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>14.37153933476151</v>
+        <v>0.2788361847253356</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.9336034234525</v>
+        <v>17.10176315808503</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.50051210498602</v>
+        <v>21.37188434559307</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>18.67238256227292</v>
+        <v>1.644858115487821</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>33.46222544007751</v>
+        <v>36.37843718437314</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>38.01835885415811</v>
+        <v>45.7844439728769</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>37.00788068025585</v>
+        <v>34.73063022655016</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>41.85141350432425</v>
+        <v>49.97826710420024</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>43.85056216033972</v>
+        <v>54.41578583266529</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.32170295363237</v>
+        <v>10.3282318159648</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>39.32327180307481</v>
+        <v>31.79524575054633</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.96917099217487</v>
+        <v>40.66835767336734</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>30.28891467771596</v>
+        <v>59.57020987083293</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.95981976030074</v>
+        <v>55.64755453996706</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>33.82146487699482</v>
+        <v>65.69457218132997</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>35.81542967299916</v>
+        <v>66.57158060778572</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>19.34409551962202</v>
+        <v>26.01013535686216</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>31.36307297675254</v>
+        <v>62.37018631047214</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.95073584834803</v>
+        <v>61.15865267426373</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>16.66600655269445</v>
+        <v>20.95931760776263</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>14.37186492808954</v>
+        <v>8.170456125548512</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.93394125011413</v>
+        <v>44.33322067088825</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>33.50085357855242</v>
+        <v>46.58481693692407</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>18.67271137461777</v>
+        <v>11.10747266896182</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.46256661892118</v>
+        <v>65.97893593863905</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.01870333043769</v>
+        <v>72.14236657426649</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>37.00822641910744</v>
+        <v>74.86674965588098</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>41.85176187728886</v>
+        <v>84.77800169283769</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>43.85091192679777</v>
+        <v>86.70381005113909</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>27.32203949309807</v>
+        <v>30.41118257367894</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>39.32361901651653</v>
+        <v>76.17065957173649</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>42.96952054208843</v>
+        <v>78.03302236047035</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.28915982189131</v>
+        <v>60.51062555302947</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.96006857566324</v>
+        <v>51.49628756677517</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>33.82171149273255</v>
+        <v>60.13640892025823</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>35.81567509841088</v>
+        <v>64.73042002345115</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>19.34434581496992</v>
+        <v>16.98770080784094</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>31.36332028038608</v>
+        <v>56.46022336176433</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>34.95098070541248</v>
+        <v>57.87435814241432</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.66624736271226</v>
+        <v>14.67526472384829</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.51776977222226</v>
+        <v>38.44308615486254</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>35.03664022011721</v>
+        <v>44.38103963734007</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>14.37211363834952</v>
+        <v>4.437837263022189</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.93418635490172</v>
+        <v>41.03208567157161</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.50109584999336</v>
+        <v>46.94420472071108</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>18.67295952056566</v>
+        <v>8.052279337327818</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.46281083119205</v>
+        <v>64.30239347221617</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.01894465680665</v>
+        <v>74.13141129152739</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>37.00847129999018</v>
+        <v>73.13571919663163</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>41.85200457068328</v>
+        <v>81.76925600249196</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>43.85115341035785</v>
+        <v>87.1743336386519</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>27.322285934936</v>
+        <v>22.36526210520556</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>39.32386246129906</v>
+        <v>72.33783613289488</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>42.96976147162972</v>
+        <v>76.61909315116115</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.28906734591064</v>
+        <v>57.33310436977301</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.95997666773254</v>
+        <v>37.35307764912646</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>33.82162268291675</v>
+        <v>47.99335361630206</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>35.81558674644748</v>
+        <v>57.32512318440199</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>19.34424963780401</v>
+        <v>13.14282475506691</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.36322911466327</v>
+        <v>49.39713793285081</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>34.95089037753502</v>
+        <v>55.97433978967389</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>16.66615302769848</v>
+        <v>14.70065989759139</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.51768189746463</v>
+        <v>38.51703295815371</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>35.03655318431181</v>
+        <v>47.87311008964976</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.37200886567138</v>
+        <v>7.484619179039427</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.93408878789937</v>
+        <v>39.991225990724</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>33.50099879513157</v>
+        <v>49.6587653687133</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>18.67285804772415</v>
+        <v>8.677606917370312</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.46271640705091</v>
+        <v>61.21505813744061</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.0188511119884</v>
+        <v>74.51022081452935</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>37.00837844233148</v>
+        <v>61.14078042013882</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>41.85191479496251</v>
+        <v>73.3068648670742</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>43.85106411690279</v>
+        <v>84.77577194573719</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>27.32218890441483</v>
+        <v>18.91995239824963</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>39.32377040138115</v>
+        <v>65.5007742161193</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>42.96967031062862</v>
+        <v>76.93176867588481</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>9.667509367570542</v>
+        <v>15.69912133078849</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>23.48983341333065</v>
+        <v>27.29614169968211</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.9495828853637</v>
+        <v>30.19547504613466</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>6.963180924822156</v>
+        <v>2.955641753341396</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.52829661121321</v>
+        <v>22.56712716787509</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.04420501148753</v>
+        <v>22.01169017690687</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>11.30801933120016</v>
+        <v>7.092352718142834</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.08592049220928</v>
+        <v>41.75229856142091</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>30.57123659790795</v>
+        <v>40.45511742837392</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.12496416881934</v>
+        <v>29.05996474889677</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.91238953426461</v>
+        <v>36.4538853937084</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>35.8885043915474</v>
+        <v>36.86663591196144</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>19.3512646525698</v>
+        <v>13.18140050666311</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.34289780012071</v>
+        <v>21.53688194920177</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>34.97279426227522</v>
+        <v>27.60376739763807</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>13.29087034566407</v>
+        <v>19.4077349139463</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.28771084820448</v>
+        <v>33.75472226507331</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.74493590777055</v>
+        <v>35.17357367184873</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.41841330412981</v>
+        <v>6.2267911635236</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.09764643845333</v>
+        <v>18.09003609544142</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.64208708374308</v>
+        <v>20.66396611920281</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>14.75077080444107</v>
+        <v>5.649946745387453</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.69646752515157</v>
+        <v>35.62606294223231</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>9.667816320451486</v>
+        <v>17.33839120497238</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>23.49015213772703</v>
+        <v>36.21401543528786</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.94990488189362</v>
+        <v>35.40593317464625</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>6.963499695051054</v>
+        <v>4.527346026816488</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>21.52862766487367</v>
+        <v>39.98208064403777</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.04453968706584</v>
+        <v>37.8361932142994</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>11.3083412007675</v>
+        <v>7.784448416431829</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.08625475570432</v>
+        <v>58.77709626621269</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>30.57157413199943</v>
+        <v>55.28410548501274</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.12530291360616</v>
+        <v>56.34998980946007</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.91273092588912</v>
+        <v>61.60642252089569</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.88884717884183</v>
+        <v>60.21615108098929</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>19.35159410135089</v>
+        <v>20.45006277196303</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.34323799822532</v>
+        <v>50.23689461514066</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>34.97313677022451</v>
+        <v>49.79046032387579</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>13.2911809106995</v>
+        <v>22.61373767994239</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.28803323861407</v>
+        <v>44.95150334724842</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>31.74526164082951</v>
+        <v>43.97481715921633</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10.41873555548063</v>
+        <v>9.62397785085092</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.09798099378749</v>
+        <v>38.75694581397501</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.6424253543744</v>
+        <v>40.96827067633627</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>14.75109621992855</v>
+        <v>10.34574776212442</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.69680538651954</v>
+        <v>58.57779276277928</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>9.668061117572147</v>
+        <v>11.42851013906598</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>23.4903933848267</v>
+        <v>30.36616808360576</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>27.95014329114055</v>
+        <v>31.96888165780832</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.96375268323343</v>
+        <v>1.744611039278098</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>21.52887708650185</v>
+        <v>36.56616677922078</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.0447863027092</v>
+        <v>37.87964642775684</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>11.30859355315458</v>
+        <v>5.092855222734201</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.08650320422337</v>
+        <v>56.44696813357244</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>30.57181973622781</v>
+        <v>56.37262939585359</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.12555233109455</v>
+        <v>54.91232691696852</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.91297819832317</v>
+        <v>59.07204255745067</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>35.88909326453677</v>
+        <v>60.63350339873436</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>19.35184503867993</v>
+        <v>11.87288282722348</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>31.34348598056901</v>
+        <v>44.35988459571136</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>34.97338224837401</v>
+        <v>45.92902410299196</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>13.29142602988301</v>
+        <v>15.61341793557709</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>27.28827473567576</v>
+        <v>38.05518287522857</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>31.74550033702085</v>
+        <v>39.99185391200199</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.41898897405359</v>
+        <v>5.032926771489358</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.09823080129671</v>
+        <v>33.56715508651693</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.64267238041055</v>
+        <v>39.93036935255599</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>14.75134903236598</v>
+        <v>6.219763590577386</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.69705422657093</v>
+        <v>54.85810223274059</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>9.667967134821614</v>
+        <v>10.93600452215871</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>23.49030581350304</v>
+        <v>29.56601530404974</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.95005650987576</v>
+        <v>33.94561683075879</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>6.963647733590937</v>
+        <v>5.574201796629708</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.5287793166511</v>
+        <v>37.13592700292226</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.04468900567525</v>
+        <v>41.28119700738903</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>11.30849205840764</v>
+        <v>7.584452032046542</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>26.08640872437281</v>
+        <v>56.06723935860332</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.57172607661271</v>
+        <v>58.05025065691835</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.12545895835406</v>
+        <v>47.7990030973245</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.91288783739058</v>
+        <v>52.66504480619271</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>35.8890033622753</v>
+        <v>58.8132577841093</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>19.35174742277488</v>
+        <v>13.03315234518756</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>31.34339326650219</v>
+        <v>41.64636826671908</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>34.97329043582365</v>
+        <v>49.24558399447865</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.2913336019597</v>
+        <v>13.97879328963465</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.28818890111895</v>
+        <v>36.11408229184589</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>31.74541523358051</v>
+        <v>40.39237260379871</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>10.41888559376011</v>
+        <v>6.965175058176769</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.09813475034947</v>
+        <v>31.38069936133878</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.6425767496195</v>
+        <v>40.61929351135113</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>14.75124902202958</v>
+        <v>6.092068158238348</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.69696140858205</v>
+        <v>50.8064459468266</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>34.18804361607522</v>
+        <v>39.27910088530403</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>32.80296324859361</v>
+        <v>29.10334973377256</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>37.72629467185213</v>
+        <v>42.48301552261394</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>39.72515531882827</v>
+        <v>45.22545066138046</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.03560195734741</v>
+        <v>14.26086663102255</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>35.22981743208519</v>
+        <v>29.76310268788775</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>38.83944116981027</v>
+        <v>33.64933363647718</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.19551707251407</v>
+        <v>16.5124318768011</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>34.24397541055164</v>
+        <v>32.30753456162357</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>38.78440038451967</v>
+        <v>37.04185421887304</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>17.89407451092253</v>
+        <v>0.04314955153849098</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.65126769215136</v>
+        <v>16.54983165987217</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>37.24519419705194</v>
+        <v>19.87845237927259</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>22.26985723690045</v>
+        <v>0.7929971099089101</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.26477563080632</v>
+        <v>37.52458090710273</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>41.84374052514381</v>
+        <v>45.55684618163666</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>40.78444873299931</v>
+        <v>36.42267550113978</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>45.68878445089567</v>
+        <v>50.90934709684502</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>47.69278052471758</v>
+        <v>56.71725961685944</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>30.94774264686345</v>
+        <v>9.013155862742892</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>43.12256783497226</v>
+        <v>32.23888765286812</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>46.79041946479153</v>
+        <v>41.00085933550126</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>34.18838482871378</v>
+        <v>61.94493360695652</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>32.80330547135636</v>
+        <v>59.82925484310981</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.72663956546363</v>
+        <v>69.46214512272327</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>39.72550163500448</v>
+        <v>70.79902905798399</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.03593497614548</v>
+        <v>26.3343869766549</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>35.23016127128602</v>
+        <v>64.77649631228427</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.83978736449401</v>
+        <v>63.6816373058313</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>20.19583675171924</v>
+        <v>23.42604973179478</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>34.24430698441159</v>
+        <v>48.78181139684942</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>38.7847352647043</v>
+        <v>49.13593299946292</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>17.89440606181861</v>
+        <v>8.123031182410372</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>32.65161162687012</v>
+        <v>44.45077855404999</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>37.24554179986096</v>
+        <v>45.46310479954694</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>22.27019205875509</v>
+        <v>10.30378585721307</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>37.2651229734205</v>
+        <v>67.62718409554746</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>41.84409117591143</v>
+        <v>72.16844020090942</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>40.78480064497559</v>
+        <v>76.93893770467601</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>45.68913902931219</v>
+        <v>86.22681408397007</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>47.69313650199256</v>
+        <v>89.41922918523143</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>30.94808524180157</v>
+        <v>28.85277648156973</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>43.12292124200789</v>
+        <v>77.06922475268935</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>46.79077521813567</v>
+        <v>78.57816383086372</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>34.18863086068358</v>
+        <v>62.5315940792001</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>32.80355522376931</v>
+        <v>55.24115777293933</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>37.72688708900937</v>
+        <v>63.48285206895302</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>39.72574796204857</v>
+        <v>68.59845131336998</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.03618624341918</v>
+        <v>16.87153095302891</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>35.23040950177381</v>
+        <v>58.43326829783631</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>38.84003312417404</v>
+        <v>59.92523668725197</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.19607850480585</v>
+        <v>16.5699973921791</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.24454509302741</v>
+        <v>42.71521352924877</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>38.7849704674709</v>
+        <v>45.68243966456878</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>17.89465579366931</v>
+        <v>3.831324716599696</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.6518577061629</v>
+        <v>40.53834160924318</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.24578501278263</v>
+        <v>45.27628694547691</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>22.27044120284758</v>
+        <v>6.655007314195402</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>37.26536812766157</v>
+        <v>65.31398318879179</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>41.84433341178867</v>
+        <v>73.57536474666453</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>40.78504648225523</v>
+        <v>74.54850700733492</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>45.68938265001071</v>
+        <v>82.58630246064142</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>47.69337890681811</v>
+        <v>89.31967309591083</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>30.94833267499602</v>
+        <v>20.13357971982047</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>43.12316563332233</v>
+        <v>72.58192770987257</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>46.79101706975113</v>
+        <v>76.47291115110811</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>34.18853880486705</v>
+        <v>60.245906221651</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>32.80346369854577</v>
+        <v>41.85636212211513</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>37.7267986996266</v>
+        <v>51.96256444814243</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>39.72566002738017</v>
+        <v>62.02309186359612</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.03609036509731</v>
+        <v>14.43989745158287</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.23031872393127</v>
+        <v>52.38105326314242</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.83994318973392</v>
+        <v>59.15655414772858</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>20.19598448191914</v>
+        <v>17.24651831270349</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.24445764034854</v>
+        <v>43.12084260864528</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>38.78488385220481</v>
+        <v>49.77390857925168</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>17.89455124238135</v>
+        <v>7.644695630012237</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.65176047115169</v>
+        <v>39.96104775287283</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>37.24568828233846</v>
+        <v>48.7556633755694</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>22.2703399972374</v>
+        <v>8.195010411481022</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.26527408485055</v>
+        <v>62.8125266594035</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>41.84424024858993</v>
+        <v>74.80521582831413</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>40.7849539709769</v>
+        <v>63.22902651314051</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>45.68929325781544</v>
+        <v>74.69682592975089</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>47.69328999417643</v>
+        <v>87.72741806017284</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.94823590653413</v>
+        <v>18.01140040438234</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.12307392497357</v>
+        <v>66.6695256516346</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>46.79092626576507</v>
+        <v>77.88306983657428</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>7.910416991515168</v>
+        <v>13.63554720678344</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>21.64271536863855</v>
+        <v>16.70818300846146</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.09515330655492</v>
+        <v>21.51900746269679</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>5.184974752774728</v>
+        <v>1.973401015439649</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.65608347665514</v>
+        <v>12.31691734775249</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.16667521983197</v>
+        <v>12.50494939723824</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>9.508105700507677</v>
+        <v>5.762712946122278</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>24.19389315670542</v>
+        <v>26.99068530939864</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.67007600310109</v>
+        <v>27.08998692489853</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>27.25965753736232</v>
+        <v>16.57779805819523</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>32.01777431257176</v>
+        <v>21.43680779054684</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>33.99122280712691</v>
+        <v>21.53304094776426</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>17.53901070602128</v>
+        <v>10.8130694595075</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.47111805477256</v>
+        <v>10.88773907580038</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>33.09902328608081</v>
+        <v>19.18363816243298</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.49122107223671</v>
+        <v>11.07829140566024</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.40047641320377</v>
+        <v>18.46892271562997</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.85114779834802</v>
+        <v>21.85906088646122</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>8.598210623594031</v>
+        <v>-0.6401167270320656</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.18549968353134</v>
+        <v>2.933201641198067</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.72544516659286</v>
+        <v>6.605773055934336</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>12.908150883609</v>
+        <v>-1.8000885499237</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.76425348885007</v>
+        <v>16.48991629892451</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>7.910721863019821</v>
+        <v>11.68123219033068</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21.64303195156129</v>
+        <v>21.76685418902359</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.09547316568597</v>
+        <v>23.00304779374211</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>5.185291413208997</v>
+        <v>-0.03284152531178108</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.65641235542667</v>
+        <v>25.79197497877259</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.16700772399305</v>
+        <v>24.5422252508768</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>9.508425453526659</v>
+        <v>2.916904702240188</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.19422524225298</v>
+        <v>40.16644884004332</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.67041136251196</v>
+        <v>38.14432543758342</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>27.2599941162986</v>
+        <v>40.03110453665714</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.01811352689126</v>
+        <v>42.86580629434336</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.99156341750259</v>
+        <v>41.06687104660215</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>17.53933803001412</v>
+        <v>14.59528640248983</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.47145608775914</v>
+        <v>35.79861412747577</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.09936363571991</v>
+        <v>37.66018539252811</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>11.49152955193151</v>
+        <v>11.28478183066885</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.40079665978133</v>
+        <v>26.44992956665057</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.85147139231631</v>
+        <v>27.57574193691435</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>8.598530763303764</v>
+        <v>-0.2124860594200442</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.18583206358894</v>
+        <v>20.31809131560074</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.72578126616962</v>
+        <v>23.79343759503205</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>12.90847417973396</v>
+        <v>-0.02962454584719865</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.76458917107794</v>
+        <v>36.25823929405119</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>7.910967102446484</v>
+        <v>5.912884986084933</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.64327367279345</v>
+        <v>16.00016784509425</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.09571205841093</v>
+        <v>19.67819682494935</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5.185544843616992</v>
+        <v>-2.73031100616312</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>19.65666225068976</v>
+        <v>22.40655826176008</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.16725482148004</v>
+        <v>24.63565767858249</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>9.508678262240021</v>
+        <v>0.3660497683419095</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.19447417968708</v>
+        <v>37.92964496916407</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.67065746552197</v>
+        <v>39.35834911861663</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>27.26024401903663</v>
+        <v>38.62282690230471</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>32.01836129827538</v>
+        <v>40.41138520686515</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>33.99181000437374</v>
+        <v>41.56801483611547</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>17.53958943557628</v>
+        <v>6.084429547088135</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.47170455921889</v>
+        <v>29.96904611276695</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.09960960835753</v>
+        <v>33.90283536691409</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>11.49177512641079</v>
+        <v>4.713501801670546</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.40103864297711</v>
+        <v>19.9231146839834</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.85171058370405</v>
+        <v>23.99987713097848</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.598784636895434</v>
+        <v>-4.411871005807413</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.1860823567268</v>
+        <v>15.4671772152836</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.72602878577129</v>
+        <v>23.12177513307957</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>12.90872746125395</v>
+        <v>-3.704824095659475</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.76483851176954</v>
+        <v>32.93920592240123</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>7.910872879976099</v>
+        <v>4.216009023627564</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>21.64318581072363</v>
+        <v>14.06665019250921</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.0956249755576</v>
+        <v>20.45290933446664</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>5.18543965778767</v>
+        <v>-0.1684132786208323</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.65656419168675</v>
+        <v>21.86811302855229</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.1671572279404</v>
+        <v>26.80548886373113</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>9.508576513329244</v>
+        <v>1.53109515906344</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.19437939340884</v>
+        <v>36.32909085616858</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.67056348716992</v>
+        <v>39.79603020473188</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>27.26015036680305</v>
+        <v>30.34309067261258</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>32.01827063458228</v>
+        <v>32.78604672226139</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.99171979536744</v>
+        <v>38.58767712829662</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>17.53949156671472</v>
+        <v>5.868416142827286</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.47161155788871</v>
+        <v>26.04414343364571</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>33.09951749996631</v>
+        <v>36.0249333393654</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>11.49168241223157</v>
+        <v>2.499856692060675</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.40095247265667</v>
+        <v>17.44601249585678</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.85162513388337</v>
+        <v>23.80416688508039</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>8.598680971665466</v>
+        <v>-3.096908426226136</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>23.18598596913396</v>
+        <v>12.79381623895348</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>27.72593281120737</v>
+        <v>23.20306382384105</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>12.90862714798258</v>
+        <v>-4.504857872566603</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.76474534018546</v>
+        <v>28.2842707697195</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.24744977465716</v>
+        <v>21.6180954682584</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.89555449395045</v>
+        <v>10.17606273131632</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>35.79002593401071</v>
+        <v>21.23458431408919</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.78583957537331</v>
+        <v>23.41636467998039</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>21.17915497726531</v>
+        <v>3.796987936412094</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.31601609139875</v>
+        <v>12.13110856025223</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.92385689802882</v>
+        <v>17.72723874265414</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>18.50055881221071</v>
+        <v>13.91900071928687</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>32.46347933344896</v>
+        <v>23.00425683359144</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>36.99610916618109</v>
+        <v>29.4248773393774</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>16.17758773392685</v>
+        <v>-1.485525158960698</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.84547609668159</v>
+        <v>7.3186351305974</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>35.43363304473951</v>
+        <v>11.33154596642861</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>20.5333064987518</v>
+        <v>-0.5710222097466016</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.44077042434026</v>
+        <v>25.06056900364284</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>40.0099690262681</v>
+        <v>34.06007864493473</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>38.98404859597969</v>
+        <v>24.64540404517776</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>43.85897522517013</v>
+        <v>36.74256993629844</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>45.85996469253816</v>
+        <v>41.79683227320355</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.19700321371299</v>
+        <v>5.213960671558468</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.31504846936616</v>
+        <v>21.55308086258152</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>44.98011134753393</v>
+        <v>31.92963111666846</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>32.24778881207906</v>
+        <v>41.17525195387798</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>30.89589454970738</v>
+        <v>37.68555321517361</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.79036864982539</v>
+        <v>45.11900879076022</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.78618371403404</v>
+        <v>45.79224892401582</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>21.17948586842073</v>
+        <v>12.96939832559316</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>33.31635776443696</v>
+        <v>44.00079523436681</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>36.92420093361203</v>
+        <v>44.70424034480642</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>18.50087652902067</v>
+        <v>19.58450249710653</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>32.46380888795832</v>
+        <v>38.01848781027034</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.99644203064828</v>
+        <v>40.1891792065699</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>16.17791729571024</v>
+        <v>5.421002673682025</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>30.84581798067782</v>
+        <v>33.7477948777579</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.43397859988322</v>
+        <v>35.59839431008497</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>20.53363932549299</v>
+        <v>7.832274526895375</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.44111571367753</v>
+        <v>53.80593542119227</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.01031762649322</v>
+        <v>59.38713335437448</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>38.98439846595492</v>
+        <v>63.77962157556054</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>43.8593277505161</v>
+        <v>70.80375834783293</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>45.86031861660237</v>
+        <v>73.13302649462388</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.19734380432681</v>
+        <v>23.96937677067423</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>41.31539983391835</v>
+        <v>65.05576083339001</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>44.98046506480939</v>
+        <v>68.26466298593333</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>32.24803535427405</v>
+        <v>42.20361164288234</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>30.89614480002954</v>
+        <v>33.43920658813245</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>35.79061668496105</v>
+        <v>39.53573891522605</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>37.78643055509172</v>
+        <v>43.98935825785505</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>21.17973761742182</v>
+        <v>3.87675082729443</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>33.31660649681959</v>
+        <v>38.01801027861008</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.9244472006168</v>
+        <v>41.37325123464832</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>18.50111873124592</v>
+        <v>13.49447851900599</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.46404747578947</v>
+        <v>32.66846546870578</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.99667772229943</v>
+        <v>37.48606307965041</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.17816747724211</v>
+        <v>1.871296338948625</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.84606453944662</v>
+        <v>30.53538754169132</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>35.43422230075549</v>
+        <v>36.13220186453837</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>20.53388893237788</v>
+        <v>4.981201456037766</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.44136136144844</v>
+        <v>52.25270055390776</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.0105603661834</v>
+        <v>61.59071408024876</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>38.98464479432957</v>
+        <v>62.08349822802749</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>43.85957187627334</v>
+        <v>67.91447832925654</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>45.86056152886037</v>
+        <v>73.78619705351737</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.19759171260361</v>
+        <v>15.95976695915023</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>41.31564472029842</v>
+        <v>61.28054861131007</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>44.98070741734021</v>
+        <v>66.93083538997679</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>32.24794293278438</v>
+        <v>39.30820236508431</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.89605294534918</v>
+        <v>19.53684323899846</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.79052794282865</v>
+        <v>27.44630813584847</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>37.78634226333745</v>
+        <v>36.90850238480554</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>21.17964143515914</v>
+        <v>0.7189437872958564</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.31651538179333</v>
+        <v>31.36642448306985</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.92435692048539</v>
+        <v>40.02496640023365</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>18.50102444740439</v>
+        <v>12.55328567078986</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.46395971322841</v>
+        <v>31.51609191831794</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.99659078628609</v>
+        <v>39.95192577654687</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.17806266546116</v>
+        <v>4.002287063963038</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.84596699312081</v>
+        <v>28.41480458657587</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.43412525165376</v>
+        <v>37.9461502422326</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>20.5337874496985</v>
+        <v>4.76549468873084</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.4412669914886</v>
+        <v>48.08292052882645</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>40.01046686344208</v>
+        <v>61.13680216502537</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>38.98455197961756</v>
+        <v>49.16223406643796</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.8594821569238</v>
+        <v>58.36906708033113</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>45.86047228531558</v>
+        <v>70.61125903211091</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.19749466638772</v>
+        <v>12.0126482922709</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>41.31555270094123</v>
+        <v>53.69501510194952</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>44.98061629343543</v>
+        <v>66.68600296526834</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>15.78465766495998</v>
+        <v>10.44647473140388</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.6928709542778</v>
+        <v>18.6425149334985</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>34.26808498572678</v>
+        <v>24.98261064735117</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>13.15114955835477</v>
+        <v>-2.538969704696243</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>27.80096808236562</v>
+        <v>15.64407519897931</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>32.43216266827634</v>
+        <v>16.97415911722094</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.57236146363505</v>
+        <v>2.264544689559287</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>32.44709024573724</v>
+        <v>31.80622008089158</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>37.04963836744848</v>
+        <v>34.25497402006319</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.56200594218711</v>
+        <v>20.53282658624683</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>40.39614345582568</v>
+        <v>31.27095952765582</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>42.40936784702038</v>
+        <v>31.9665399744659</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.70658113547286</v>
+        <v>9.721011125418229</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>37.75367090288275</v>
+        <v>15.55683956913016</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.4651060722619</v>
+        <v>25.19462188228609</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>19.81123820755801</v>
+        <v>14.82444372457361</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.89676834919233</v>
+        <v>28.29015710588912</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.47256906988082</v>
+        <v>34.70764993947189</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>17.01422287409242</v>
+        <v>0.6423431907552555</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.78219569754278</v>
+        <v>12.28913122695435</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.44540048902644</v>
+        <v>17.97393575382814</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>21.42706581714743</v>
+        <v>0.5995952132007432</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.47210076961648</v>
+        <v>27.97079299374791</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>15.78497454961481</v>
+        <v>13.71627100662799</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.69319972597304</v>
+        <v>29.26539863329604</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>34.26841711557931</v>
+        <v>32.33497874450289</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>13.15147840385479</v>
+        <v>1.047137889765438</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.80130932017816</v>
+        <v>35.47010354576371</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>32.43250761980728</v>
+        <v>36.05595402580882</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>17.57269351402452</v>
+        <v>5.498396566721468</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.44743481412107</v>
+        <v>52.02559151327928</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>37.04998629568193</v>
+        <v>52.83966168976345</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.56235506670816</v>
+        <v>51.9437118154862</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>40.3964952643796</v>
+        <v>60.20135846255387</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.4097210860764</v>
+        <v>59.39517861146076</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.70692087320107</v>
+        <v>20.80454027918857</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.75402146680929</v>
+        <v>48.58327795120859</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.46545900671845</v>
+        <v>52.1804885805979</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.81155890294376</v>
+        <v>20.27854704845966</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>33.89710098533737</v>
+        <v>41.8860336443358</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.47290513691915</v>
+        <v>46.38183561887003</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>17.0145554039978</v>
+        <v>6.730926244776455</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>31.78254064119051</v>
+        <v>36.0904309786054</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.44574924179254</v>
+        <v>42.33420412318519</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>21.42740161891243</v>
+        <v>8.57351587757735</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.47244914106431</v>
+        <v>54.94550156333032</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>15.78522086605417</v>
+        <v>7.87846205471466</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.69344248725984</v>
+        <v>23.64957744018177</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>34.26865699317943</v>
+        <v>29.25969721310504</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.15173292613662</v>
+        <v>-1.427002795193474</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>27.80156026773427</v>
+        <v>32.5183773992121</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.43275571574829</v>
+        <v>36.81474072782446</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>17.57294741379723</v>
+        <v>3.219484456067974</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.44768480145565</v>
+        <v>50.35247775115157</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>37.05023339315944</v>
+        <v>54.81043913449282</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>35.56260603933862</v>
+        <v>51.01037867256339</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>40.39674408403375</v>
+        <v>58.0376654563138</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>42.4099686887752</v>
+        <v>60.43452911354412</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.7071733654262</v>
+        <v>12.5728284968831</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>37.75427100826997</v>
+        <v>43.28687090233144</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>41.46570599915656</v>
+        <v>49.23216278064142</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>19.81180535770037</v>
+        <v>13.50010216040816</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.89734381146121</v>
+        <v>35.37412199255586</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>38.47314511537972</v>
+        <v>42.92671439568822</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>17.01481017200663</v>
+        <v>2.624327327391811</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.78279178821701</v>
+        <v>31.54735361593059</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.44599756023976</v>
+        <v>42.21739676117095</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>21.42765579255281</v>
+        <v>5.040224963046015</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>36.47269933251972</v>
+        <v>52.06282219617516</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>15.7851272112313</v>
+        <v>4.295515327318853</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.69335524136986</v>
+        <v>20.11800108370123</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>34.26857059083504</v>
+        <v>28.16468834948436</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>13.15162826667856</v>
+        <v>-0.4463555141388582</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>27.80146278640848</v>
+        <v>30.39352970870912</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.43265875747337</v>
+        <v>37.12808415902073</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>17.57284622944355</v>
+        <v>2.21388104452403</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>32.44759063645541</v>
+        <v>46.65029575160513</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>37.05014010015626</v>
+        <v>52.82795164058517</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>35.56251304792122</v>
+        <v>39.5857542846335</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.39665412961956</v>
+        <v>47.55794644464886</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.40987919204817</v>
+        <v>54.54255518914381</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.70707609236512</v>
+        <v>9.383100980886766</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>37.75417864194525</v>
+        <v>36.4138757664539</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.46561456249285</v>
+        <v>48.33363554970312</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>19.8117135362008</v>
+        <v>9.692672401298594</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.89725858498772</v>
+        <v>31.60324490493905</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>38.47306067538872</v>
+        <v>41.16850629306704</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>17.01470736343569</v>
+        <v>2.724389445559737</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.78269631197772</v>
+        <v>27.69517070581681</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.44590255696296</v>
+        <v>40.85117806793779</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>21.42755637667829</v>
+        <v>2.413036499802431</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>36.47260711734769</v>
+        <v>45.66546785083629</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>41.08415273256615</v>
+        <v>37.43113557275409</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>39.66474281314645</v>
+        <v>22.79420694362254</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>44.63843683522919</v>
+        <v>40.2752763312116</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>46.67642090675609</v>
+        <v>45.88504567999199</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.81328218281208</v>
+        <v>9.207209427008777</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>42.06978095296397</v>
+        <v>27.61237264728275</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>45.76119072914824</v>
+        <v>36.07079525493096</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.56795711109894</v>
+        <v>12.09272052662563</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>40.71143115697886</v>
+        <v>27.01316383877757</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>45.37294747632055</v>
+        <v>36.78994843786468</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.34133521519166</v>
+        <v>-3.892679147763189</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>39.19088720897032</v>
+        <v>12.62067653424866</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>43.90648535394696</v>
+        <v>19.22939971482187</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.78990766143557</v>
+        <v>-3.017494979359114</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>43.89119918828904</v>
+        <v>31.3958103677992</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>48.59265474376974</v>
+        <v>45.05199488413412</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>47.48803903132352</v>
+        <v>33.80028845999418</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>52.44141665225838</v>
+        <v>52.02420822946659</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>54.48514863557827</v>
+        <v>58.88837976839814</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>37.56379614460619</v>
+        <v>6.317704243082616</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.803497879284</v>
+        <v>31.30816867847649</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>53.55695200341103</v>
+        <v>45.13690711350408</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>41.08450454682612</v>
+        <v>64.75777487592639</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>39.66509562602448</v>
+        <v>58.31914527371156</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>44.63879235657758</v>
+        <v>71.61746032355005</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>46.67677788665036</v>
+        <v>76.17599556686467</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.8136257017855</v>
+        <v>25.92248734875888</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>42.07013537230371</v>
+        <v>67.84367081508186</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>45.76154756487593</v>
+        <v>71.86444632991864</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.56828690666484</v>
+        <v>22.81914391632343</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>40.71177296831685</v>
+        <v>47.48414660923909</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>45.37329268075099</v>
+        <v>53.30861319693305</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.34167702976118</v>
+        <v>8.486278806076214</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.19124152123715</v>
+        <v>45.342267363809</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.90684342741626</v>
+        <v>50.51737290078195</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.79025285220185</v>
+        <v>11.41401015318066</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.89155702986123</v>
+        <v>67.23629088064116</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>48.59301598330799</v>
+        <v>77.9418609485969</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>47.48840151195506</v>
+        <v>80.93880145870189</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.44178183821337</v>
+        <v>93.43266013690142</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>54.48551525563005</v>
+        <v>97.99885654066939</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>37.56414921375574</v>
+        <v>32.49523622268281</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>49.80386184292256</v>
+        <v>83.12591016271806</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>53.55731837490931</v>
+        <v>90.21253364154354</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.08475188361253</v>
+        <v>66.43035118411417</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>39.66534674036808</v>
+        <v>54.35658655484919</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>44.63904123223212</v>
+        <v>66.1247477903277</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>46.67702553418449</v>
+        <v>74.73970568059208</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.8138783323564</v>
+        <v>16.99143137654492</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>42.0703849672816</v>
+        <v>62.26568530953465</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>45.76179464405862</v>
+        <v>69.22533362023414</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.56853006955947</v>
+        <v>16.69357724631864</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.71201247824798</v>
+        <v>42.33826472201982</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>45.37352923506759</v>
+        <v>50.8985073245213</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>24.34192818469236</v>
+        <v>5.208011667775011</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>39.19148901253888</v>
+        <v>42.64224948184888</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.90708800285758</v>
+        <v>51.79879655272966</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.7905034347474</v>
+        <v>8.895680450258553</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>43.89180361059644</v>
+        <v>66.33898034587615</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>48.59325959635035</v>
+        <v>80.9788947031043</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>47.4886487876165</v>
+        <v>79.78645954936952</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>52.44202688859023</v>
+        <v>90.8711630435328</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>54.48575905814528</v>
+        <v>99.23780943393338</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>37.56439808863972</v>
+        <v>24.84925619939374</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>49.8041076765593</v>
+        <v>79.9725366749861</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>53.55756162106833</v>
+        <v>89.78652240395924</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>41.08466048431482</v>
+        <v>61.44982242666525</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.66525589049131</v>
+        <v>37.64873657896807</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>44.638953547274</v>
+        <v>51.65549010244455</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.67693830371353</v>
+        <v>65.20258683314866</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.81378308736264</v>
+        <v>11.12801221817624</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.07029483329976</v>
+        <v>53.01878343577162</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>45.76170538184975</v>
+        <v>65.18778027470567</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.56843650546372</v>
+        <v>14.89388125845777</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>40.71192548761289</v>
+        <v>40.64102466348977</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>45.37344314155936</v>
+        <v>52.58579640821959</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.34182405453748</v>
+        <v>6.846725675655463</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.1913922011469</v>
+        <v>40.06026514584964</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>43.9069917532662</v>
+        <v>52.89656964367252</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.79040266651121</v>
+        <v>7.592551565589716</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>43.8917100156207</v>
+        <v>61.15980595586002</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>48.59316693879138</v>
+        <v>79.24312098878592</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>47.48855679513473</v>
+        <v>64.79088671073025</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>52.44193804174204</v>
+        <v>79.70977076704837</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.48567069229065</v>
+        <v>94.4054230977798</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>37.56430179910372</v>
+        <v>18.88737383423459</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.80401645815782</v>
+        <v>70.42359617533735</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>53.55747133900633</v>
+        <v>87.50613872563382</v>
       </c>
     </row>
   </sheetData>
